--- a/spreadsheets/Braum.xlsx
+++ b/spreadsheets/Braum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EDB353-3DD8-4909-8750-BE2F9E1DA3D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010142A9-E77C-49E6-B8E6-D8095A4ACF31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="33360" yWindow="870" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -226,40 +226,40 @@
     <t>https://na.op.gg/summoner/userName=barbaricdictator</t>
   </si>
   <si>
-    <t>I Main Tanks#7446</t>
-  </si>
-  <si>
-    <t>just have to stay alive and wait for ganks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Feel free to add me in game </t>
   </si>
   <si>
-    <t>be aggressive and hold shield for after alistar's combo</t>
-  </si>
-  <si>
-    <t>bard has a large hitbox so is easy to land q's on</t>
-  </si>
-  <si>
-    <t>try to just farm, but if you are fighting, let your adc lead and then jump forward to intercept his q so no one is stunned</t>
-  </si>
-  <si>
-    <t>farm it out</t>
-  </si>
-  <si>
-    <t>cannot fight even with ganks unless the adc is vulnerable. Just wait for teamfights</t>
-  </si>
-  <si>
-    <t>it is possible to disrupt his stun by jumping forward with e up after the first bomb has landed on something else so that you snag the 2nd bomb</t>
-  </si>
-  <si>
     <t>Swain</t>
   </si>
   <si>
-    <t>must kill tahm if you are to kill anyone</t>
-  </si>
-  <si>
     <t>Self-taught support player with a specialty in tanks. Peaked at rank 33.</t>
+  </si>
+  <si>
+    <t>Be aggressive and hold shield for after alistar's combo</t>
+  </si>
+  <si>
+    <t>Bard has a large hitbox so is easy to land q's on</t>
+  </si>
+  <si>
+    <t>Try to just farm, but if you are fighting, let your adc lead and then jump forward to intercept his q so no one is stunned</t>
+  </si>
+  <si>
+    <t>Farm it out</t>
+  </si>
+  <si>
+    <t>Cannot fight even with ganks unless the adc is vulnerable. Just wait for teamfights</t>
+  </si>
+  <si>
+    <t>Must kill tahm if you are to kill anyone</t>
+  </si>
+  <si>
+    <t>Just have to stay alive and wait for ganks</t>
+  </si>
+  <si>
+    <t>It is possible to disrupt his stun by jumping forward with e up after the first bomb has landed on something else so that you snag the 2nd bomb</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OQeiY3F.png</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,9 +922,6 @@
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,6 +930,9 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
@@ -942,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -951,7 +951,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -973,10 +973,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{27F2CD3F-6FBD-4699-9953-3C894B2DA300}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{A4A2C163-7DDE-4989-BE57-8E176CEB918B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -984,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A31596C-58C2-46F4-A0C1-9DFEF759C403}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,7 +1356,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>5</v>
